--- a/europe.xlsx
+++ b/europe.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">mpg</t>
   </si>
@@ -35,13 +35,7 @@
     <t xml:space="preserve">model_year</t>
   </si>
   <si>
-    <t xml:space="preserve">origin</t>
-  </si>
-  <si>
     <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">europe</t>
   </si>
   <si>
     <t xml:space="preserve">volkswagen 1131 deluxe sedan</t>
@@ -263,9 +257,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I71" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I71"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H71" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H71"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="mpg"/>
     <tableColumn id="2" name="cylinders"/>
     <tableColumn id="3" name="displacement"/>
@@ -273,8 +267,7 @@
     <tableColumn id="5" name="weight"/>
     <tableColumn id="6" name="acceleration"/>
     <tableColumn id="7" name="model_year"/>
-    <tableColumn id="8" name="origin"/>
-    <tableColumn id="9" name="name"/>
+    <tableColumn id="8" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -590,9 +583,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -617,10 +607,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -648,9 +635,6 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -675,10 +659,7 @@
         <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -704,10 +685,7 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +711,7 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -762,10 +737,7 @@
         <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -791,10 +763,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -820,10 +789,7 @@
         <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -849,10 +815,7 @@
         <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -878,10 +841,7 @@
         <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -907,10 +867,7 @@
         <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -936,10 +893,7 @@
         <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -965,10 +919,7 @@
         <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -994,10 +945,7 @@
         <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -1023,10 +971,7 @@
         <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1052,10 +997,7 @@
         <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1081,10 +1023,7 @@
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1110,10 +1049,7 @@
         <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1139,10 +1075,7 @@
         <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1168,10 +1101,7 @@
         <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -1197,10 +1127,7 @@
         <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1226,10 +1153,7 @@
         <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1255,10 +1179,7 @@
         <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1284,10 +1205,7 @@
         <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1313,10 +1231,7 @@
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1342,10 +1257,7 @@
         <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1371,10 +1283,7 @@
         <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1400,10 +1309,7 @@
         <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -1429,10 +1335,7 @@
         <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -1458,10 +1361,7 @@
         <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1489,9 +1389,6 @@
       <c r="H32" t="s">
         <v>9</v>
       </c>
-      <c r="I32" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1516,10 +1413,7 @@
         <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -1545,10 +1439,7 @@
         <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -1574,10 +1465,7 @@
         <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -1603,10 +1491,7 @@
         <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1632,10 +1517,7 @@
         <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -1661,10 +1543,7 @@
         <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -1690,10 +1569,7 @@
         <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -1719,10 +1595,7 @@
         <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -1750,9 +1623,6 @@
       <c r="H41" t="s">
         <v>9</v>
       </c>
-      <c r="I41" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1777,10 +1647,7 @@
         <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
@@ -1806,10 +1673,7 @@
         <v>77</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -1835,10 +1699,7 @@
         <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -1864,10 +1725,7 @@
         <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1893,10 +1751,7 @@
         <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -1922,10 +1777,7 @@
         <v>78</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
@@ -1951,10 +1803,7 @@
         <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
@@ -1980,10 +1829,7 @@
         <v>78</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
@@ -2009,10 +1855,7 @@
         <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -2038,10 +1881,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
@@ -2067,10 +1907,7 @@
         <v>78</v>
       </c>
       <c r="H52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -2096,10 +1933,7 @@
         <v>79</v>
       </c>
       <c r="H53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -2125,10 +1959,7 @@
         <v>79</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
@@ -2156,9 +1987,6 @@
       <c r="H55" t="s">
         <v>9</v>
       </c>
-      <c r="I55" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2183,10 +2011,7 @@
         <v>79</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -2212,10 +2037,7 @@
         <v>80</v>
       </c>
       <c r="H57" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
@@ -2241,10 +2063,7 @@
         <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
@@ -2270,10 +2089,7 @@
         <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
@@ -2299,10 +2115,7 @@
         <v>80</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
@@ -2328,10 +2141,7 @@
         <v>80</v>
       </c>
       <c r="H61" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -2357,10 +2167,7 @@
         <v>80</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
@@ -2384,10 +2191,7 @@
         <v>80</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64">
@@ -2413,10 +2217,7 @@
         <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
@@ -2442,10 +2243,7 @@
         <v>80</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66">
@@ -2471,10 +2269,7 @@
         <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
@@ -2498,10 +2293,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68">
@@ -2527,10 +2319,7 @@
         <v>81</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69">
@@ -2556,10 +2345,7 @@
         <v>81</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
@@ -2585,10 +2371,7 @@
         <v>82</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71">
@@ -2614,10 +2397,7 @@
         <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
